--- a/data_for_db/electorator_data.xlsx
+++ b/data_for_db/electorator_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tom\python\electorator\data_for_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D55F95B-ACE4-4C14-9248-1ECC6595A822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E45809D-9E08-4EAF-8E31-F5047CF57C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{CED9FC26-9461-43CF-A83C-FF0002950223}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{CED9FC26-9461-43CF-A83C-FF0002950223}"/>
   </bookViews>
   <sheets>
     <sheet name="tik" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="208">
   <si>
     <t xml:space="preserve">Новомосковская ТИК  </t>
   </si>
@@ -645,6 +645,21 @@
   </si>
   <si>
     <t>num_uik_id</t>
+  </si>
+  <si>
+    <t>num_protocol_2</t>
+  </si>
+  <si>
+    <t>candidate_votes</t>
+  </si>
+  <si>
+    <t>name_id</t>
+  </si>
+  <si>
+    <t>20:10:05</t>
+  </si>
+  <si>
+    <t>20:10:06</t>
   </si>
 </sst>
 </file>
@@ -691,9 +706,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2006,8 +2019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48112E11-0ED7-410D-9774-E50117BE0ED2}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2288,13 +2301,76 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B880572B-C333-45A7-BD49-0AE45D73D093}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>670</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>680</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2303,7 +2379,7 @@
   <dimension ref="A13:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
